--- a/Implementation2/result assignment2.xlsx
+++ b/Implementation2/result assignment2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raylu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raylu/Desktop/cs534/CS534-Machine-Learning/Implementation2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DD0F21A-1A4F-8E48-ADAA-B88776D82764}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E602F024-9765-C242-92EA-254BFE861537}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="24540" windowHeight="15000" xr2:uid="{D8C1E147-85FA-5842-9DC8-35AA7763F088}"/>
+    <workbookView xWindow="9080" yWindow="780" windowWidth="24520" windowHeight="15000" xr2:uid="{D8C1E147-85FA-5842-9DC8-35AA7763F088}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -213,49 +213,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.94742225859247098</c:v>
+                  <c:v>0.90773322422258595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95765139116202902</c:v>
+                  <c:v>0.93617021276595702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94987725040916504</c:v>
+                  <c:v>0.93821603927986896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96481178396071998</c:v>
+                  <c:v>0.94476268412438602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.956833060556464</c:v>
+                  <c:v>0.948240589198036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95765139116202902</c:v>
+                  <c:v>0.948445171849427</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95887888707037605</c:v>
+                  <c:v>0.94905891980360002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95662847790507299</c:v>
+                  <c:v>0.94905891980360002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95908346972176695</c:v>
+                  <c:v>0.95110474631751196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96215220949263502</c:v>
+                  <c:v>0.95171849427168498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96215220949263502</c:v>
+                  <c:v>0.95192307692307598</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95908346972176695</c:v>
+                  <c:v>0.95560556464811697</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96460720130932898</c:v>
+                  <c:v>0.95355973813420603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96624386252045802</c:v>
+                  <c:v>0.95560556464811697</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95642389525368199</c:v>
+                  <c:v>0.95478723404255295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,49 +655,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.95785597381342003</c:v>
+                  <c:v>0.90773322422258595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96174304418985201</c:v>
+                  <c:v>0.93617021276595702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96297054009819905</c:v>
+                  <c:v>0.93821603927986896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96419803600654597</c:v>
+                  <c:v>0.94476268412438602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96603927986906701</c:v>
+                  <c:v>0.948240589198036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96788052373158695</c:v>
+                  <c:v>0.948445171849427</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96869885433715197</c:v>
+                  <c:v>0.94905891980360002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96931260229132499</c:v>
+                  <c:v>0.94905891980360002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97094926350245503</c:v>
+                  <c:v>0.95110474631751196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97156301145662805</c:v>
+                  <c:v>0.95171849427168498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97238134206219295</c:v>
+                  <c:v>0.95192307692307598</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97238134206219295</c:v>
+                  <c:v>0.95560556464811697</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97319967266775698</c:v>
+                  <c:v>0.95355973813420603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97381342062193099</c:v>
+                  <c:v>0.95560556464811697</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.974018003273322</c:v>
+                  <c:v>0.95478723404255295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -742,49 +742,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.94782074892572099</c:v>
+                  <c:v>0.94536525475751998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94720687538367099</c:v>
+                  <c:v>0.95211786372007301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94782074892572099</c:v>
+                  <c:v>0.95211786372007301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95211786372007301</c:v>
+                  <c:v>0.95150399017802301</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.95334561080417402</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.95211786372007301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95211786372007301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95211786372007301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95211786372007301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95395948434622402</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.95334561080417402</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>0.95457335788827502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95334561080417402</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.95273173726212401</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95334561080417402</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95395948434622402</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.95457335788827502</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.95395948434622402</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.95211786372007301</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.950890116635973</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.949662369551872</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.950276243093922</c:v>
+                  <c:v>0.95273173726212401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2486,7 +2486,7 @@
   <dimension ref="D1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="2" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D2" s="2">
-        <v>0.94742225859247098</v>
+        <v>0.90773322422258595</v>
       </c>
       <c r="E2" s="2">
         <v>0.93370165745856304</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D3" s="2">
-        <v>0.95765139116202902</v>
+        <v>0.93617021276595702</v>
       </c>
       <c r="E3" s="2">
         <v>0.94536525475751998</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D4" s="2">
-        <v>0.94987725040916504</v>
+        <v>0.93821603927986896</v>
       </c>
       <c r="E4" s="2">
         <v>0.93492940454266404</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D5" s="2">
-        <v>0.96481178396071998</v>
+        <v>0.94476268412438602</v>
       </c>
       <c r="E5" s="2">
         <v>0.94843462246777099</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D6" s="2">
-        <v>0.956833060556464</v>
+        <v>0.948240589198036</v>
       </c>
       <c r="E6" s="2">
         <v>0.93677102516881505</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D7" s="2">
-        <v>0.95765139116202902</v>
+        <v>0.948445171849427</v>
       </c>
       <c r="E7" s="2">
         <v>0.94352363413136897</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D8" s="2">
-        <v>0.95887888707037605</v>
+        <v>0.94905891980360002</v>
       </c>
       <c r="E8" s="2">
         <v>0.93799877225291595</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D9" s="2">
-        <v>0.95662847790507299</v>
+        <v>0.94905891980360002</v>
       </c>
       <c r="E9" s="2">
         <v>0.93861264579496595</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D10" s="2">
-        <v>0.95908346972176695</v>
+        <v>0.95110474631751196</v>
       </c>
       <c r="E10" s="2">
         <v>0.94782074892572099</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D11" s="2">
-        <v>0.96215220949263502</v>
+        <v>0.95171849427168498</v>
       </c>
       <c r="E11" s="2">
         <v>0.93922651933701595</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D12" s="2">
-        <v>0.96215220949263502</v>
+        <v>0.95192307692307598</v>
       </c>
       <c r="E12" s="2">
         <v>0.94045426642111696</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D13" s="2">
-        <v>0.95908346972176695</v>
+        <v>0.95560556464811697</v>
       </c>
       <c r="E13" s="2">
         <v>0.94290976058931797</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D14" s="2">
-        <v>0.96460720130932898</v>
+        <v>0.95355973813420603</v>
       </c>
       <c r="E14" s="2">
         <v>0.94229588704726797</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D15" s="2">
-        <v>0.96624386252045802</v>
+        <v>0.95560556464811697</v>
       </c>
       <c r="E15" s="2">
         <v>0.95273173726212401</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D16" s="2">
-        <v>0.95642389525368199</v>
+        <v>0.95478723404255295</v>
       </c>
       <c r="E16" s="2">
         <v>0.94597912829956998</v>
@@ -2632,39 +2632,39 @@
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="1">
-        <v>0.95785597381342003</v>
+        <v>0.90773322422258595</v>
       </c>
       <c r="E20" s="1">
-        <v>0.94782074892572099</v>
+        <v>0.94536525475751998</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D21" s="1">
-        <v>0.96174304418985201</v>
+        <v>0.93617021276595702</v>
       </c>
       <c r="E21" s="1">
-        <v>0.94720687538367099</v>
+        <v>0.95211786372007301</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D22" s="1">
-        <v>0.96297054009819905</v>
+        <v>0.93821603927986896</v>
       </c>
       <c r="E22" s="1">
-        <v>0.94782074892572099</v>
+        <v>0.95211786372007301</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D23" s="1">
-        <v>0.96419803600654597</v>
+        <v>0.94476268412438602</v>
       </c>
       <c r="E23" s="1">
-        <v>0.95211786372007301</v>
+        <v>0.95150399017802301</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D24" s="1">
-        <v>0.96603927986906701</v>
+        <v>0.948240589198036</v>
       </c>
       <c r="E24" s="1">
         <v>0.95334561080417402</v>
@@ -2672,82 +2672,82 @@
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D25" s="1">
-        <v>0.96788052373158695</v>
+        <v>0.948445171849427</v>
       </c>
       <c r="E25" s="1">
-        <v>0.95334561080417402</v>
+        <v>0.95211786372007301</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D26" s="1">
-        <v>0.96869885433715197</v>
+        <v>0.94905891980360002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.95273173726212401</v>
+        <v>0.95211786372007301</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D27" s="1">
-        <v>0.96931260229132499</v>
+        <v>0.94905891980360002</v>
       </c>
       <c r="E27" s="1">
-        <v>0.95334561080417402</v>
+        <v>0.95211786372007301</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D28" s="1">
-        <v>0.97094926350245503</v>
+        <v>0.95110474631751196</v>
       </c>
       <c r="E28" s="1">
-        <v>0.95395948434622402</v>
+        <v>0.95211786372007301</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D29" s="1">
-        <v>0.97156301145662805</v>
+        <v>0.95171849427168498</v>
       </c>
       <c r="E29" s="1">
-        <v>0.95457335788827502</v>
+        <v>0.95395948434622402</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D30" s="1">
-        <v>0.97238134206219295</v>
+        <v>0.95192307692307598</v>
       </c>
       <c r="E30" s="1">
-        <v>0.95395948434622402</v>
+        <v>0.95334561080417402</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D31" s="1">
-        <v>0.97238134206219295</v>
+        <v>0.95560556464811697</v>
       </c>
       <c r="E31" s="1">
-        <v>0.95211786372007301</v>
+        <v>0.95457335788827502</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D32" s="1">
-        <v>0.97319967266775698</v>
+        <v>0.95355973813420603</v>
       </c>
       <c r="E32" s="1">
-        <v>0.950890116635973</v>
+        <v>0.95334561080417402</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D33" s="1">
-        <v>0.97381342062193099</v>
+        <v>0.95560556464811697</v>
       </c>
       <c r="E33" s="1">
-        <v>0.949662369551872</v>
+        <v>0.95273173726212401</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D34" s="1">
-        <v>0.974018003273322</v>
+        <v>0.95478723404255295</v>
       </c>
       <c r="E34" s="1">
-        <v>0.950276243093922</v>
+        <v>0.95273173726212401</v>
       </c>
     </row>
   </sheetData>
